--- a/in/analysis/temp/Table_Coupe_Invariant.xlsx
+++ b/in/analysis/temp/Table_Coupe_Invariant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\Dropbox\MedievalAvignon\Données Margot\Données complètes\Données confront complètes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Dropbox\MedievalAvignon\Données Margot\Données complètes\Données confront complètes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4EDB6-B353-4B1B-AFB5-79DEA5E307BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F7D72-C541-4E71-9079-3151F5DB3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EC7A0D87-14AD-2A45-910B-01F3F1E4CF76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EC7A0D87-14AD-2A45-910B-01F3F1E4CF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1630">
   <si>
     <t>id</t>
   </si>
@@ -4897,6 +4897,30 @@
   </si>
   <si>
     <t>6318615.96733212</t>
+  </si>
+  <si>
+    <t>71_1</t>
+  </si>
+  <si>
+    <t>71_2</t>
+  </si>
+  <si>
+    <t>﻿845537.6523736297</t>
+  </si>
+  <si>
+    <t>﻿6318593.908914591</t>
+  </si>
+  <si>
+    <t>﻿177.23153902189796</t>
+  </si>
+  <si>
+    <t>﻿845693.3511550607</t>
+  </si>
+  <si>
+    <t>﻿6318599.889704918</t>
+  </si>
+  <si>
+    <t>﻿168.1071681513215</t>
   </si>
 </sst>
 </file>
@@ -5011,7 +5035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5307,13 +5331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB1DA36-A3A5-3946-9412-7B14D74D9E64}">
-  <dimension ref="A1:E410"/>
+  <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12271,6 +12295,40 @@
         <v>1397</v>
       </c>
     </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>71</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D411" s="11" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>71</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D412" s="11" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>1628</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/in/analysis/temp/Table_Coupe_Invariant.xlsx
+++ b/in/analysis/temp/Table_Coupe_Invariant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Dropbox\MedievalAvignon\Données Margot\Données complètes\Données confront complètes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mferrand/Desktop/Dropbox/MedievalAvignon/Données Margot/Données complètes/Données confront complètes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F7D72-C541-4E71-9079-3151F5DB3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB15A5E-3A0B-6446-B55E-C5328C584F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EC7A0D87-14AD-2A45-910B-01F3F1E4CF76}"/>
+    <workbookView xWindow="33040" yWindow="1860" windowWidth="28800" windowHeight="17540" xr2:uid="{EC7A0D87-14AD-2A45-910B-01F3F1E4CF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1747">
   <si>
     <t>id</t>
   </si>
@@ -4921,13 +4921,364 @@
   </si>
   <si>
     <t>﻿168.1071681513215</t>
+  </si>
+  <si>
+    <t>844882.2898401645</t>
+  </si>
+  <si>
+    <t>6318257.560987811</t>
+  </si>
+  <si>
+    <t>844869.1661302473</t>
+  </si>
+  <si>
+    <t>6318179.3005736135</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>844861.0458048568</t>
+  </si>
+  <si>
+    <t>6318099.8854642855</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>844856.6243601209</t>
+  </si>
+  <si>
+    <t>6318024.568915296</t>
+  </si>
+  <si>
+    <t>845179.9866815073</t>
+  </si>
+  <si>
+    <t>6318192.795686267</t>
+  </si>
+  <si>
+    <t>845249.5720850164</t>
+  </si>
+  <si>
+    <t>6318153.999679145</t>
+  </si>
+  <si>
+    <t>56_3</t>
+  </si>
+  <si>
+    <t>845317.1872580048</t>
+  </si>
+  <si>
+    <t>6318112.310523251</t>
+  </si>
+  <si>
+    <t>56_4</t>
+  </si>
+  <si>
+    <t>845386.5624804839</t>
+  </si>
+  <si>
+    <t>6318074.129389225</t>
+  </si>
+  <si>
+    <t>56_5</t>
+  </si>
+  <si>
+    <t>845432.2008469735</t>
+  </si>
+  <si>
+    <t>6318027.610736525</t>
+  </si>
+  <si>
+    <t>845527.9419791141</t>
+  </si>
+  <si>
+    <t>6318445.819916312</t>
+  </si>
+  <si>
+    <t>845593.8430534794</t>
+  </si>
+  <si>
+    <t>6318491.17461174</t>
+  </si>
+  <si>
+    <t>67_3</t>
+  </si>
+  <si>
+    <t>845659.3218021546</t>
+  </si>
+  <si>
+    <t>6318537.120982377</t>
+  </si>
+  <si>
+    <t>67_4</t>
+  </si>
+  <si>
+    <t>845725.3485444647</t>
+  </si>
+  <si>
+    <t>6318581.898923179</t>
+  </si>
+  <si>
+    <t>67_5</t>
+  </si>
+  <si>
+    <t>845797.0294116591</t>
+  </si>
+  <si>
+    <t>6318616.908689271</t>
+  </si>
+  <si>
+    <t>67_6</t>
+  </si>
+  <si>
+    <t>845874.2728731296</t>
+  </si>
+  <si>
+    <t>6318631.751492211</t>
+  </si>
+  <si>
+    <t>67_7</t>
+  </si>
+  <si>
+    <t>845952.464838951</t>
+  </si>
+  <si>
+    <t>6318618.51028768</t>
+  </si>
+  <si>
+    <t>67_8</t>
+  </si>
+  <si>
+    <t>845993.1159917351</t>
+  </si>
+  <si>
+    <t>6318604.483209986</t>
+  </si>
+  <si>
+    <t>845681.8840209778</t>
+  </si>
+  <si>
+    <t>6318385.318952054</t>
+  </si>
+  <si>
+    <t>845761.7140051146</t>
+  </si>
+  <si>
+    <t>6318388.328460947</t>
+  </si>
+  <si>
+    <t>70_3</t>
+  </si>
+  <si>
+    <t>845839.7799933433</t>
+  </si>
+  <si>
+    <t>6318403.885588588</t>
+  </si>
+  <si>
+    <t>70_4</t>
+  </si>
+  <si>
+    <t>845915.1931330638</t>
+  </si>
+  <si>
+    <t>6318430.135731565</t>
+  </si>
+  <si>
+    <t>70_5</t>
+  </si>
+  <si>
+    <t>845988.8979505254</t>
+  </si>
+  <si>
+    <t>6318449.170629157</t>
+  </si>
+  <si>
+    <t>845505.0804245336</t>
+  </si>
+  <si>
+    <t>6318592.382335656</t>
+  </si>
+  <si>
+    <t>845584.92087359</t>
+  </si>
+  <si>
+    <t>6318596.941407222</t>
+  </si>
+  <si>
+    <t>71_3</t>
+  </si>
+  <si>
+    <t>845664.6497777242</t>
+  </si>
+  <si>
+    <t>6318597.504403641</t>
+  </si>
+  <si>
+    <t>71_4</t>
+  </si>
+  <si>
+    <t>845742.5619609219</t>
+  </si>
+  <si>
+    <t>6318612.881450406</t>
+  </si>
+  <si>
+    <t>71_5</t>
+  </si>
+  <si>
+    <t>845796.6846801147</t>
+  </si>
+  <si>
+    <t>6318623.96366529</t>
+  </si>
+  <si>
+    <t>844806.1092289924</t>
+  </si>
+  <si>
+    <t>6318451.891621228</t>
+  </si>
+  <si>
+    <t>844787.6392102689</t>
+  </si>
+  <si>
+    <t>6318374.0793715</t>
+  </si>
+  <si>
+    <t>82_3</t>
+  </si>
+  <si>
+    <t>844769.6850786759</t>
+  </si>
+  <si>
+    <t>6318296.1683825655</t>
+  </si>
+  <si>
+    <t>82_4</t>
+  </si>
+  <si>
+    <t>844755.2712013418</t>
+  </si>
+  <si>
+    <t>6318217.580772003</t>
+  </si>
+  <si>
+    <t>82_5</t>
+  </si>
+  <si>
+    <t>844753.865313375</t>
+  </si>
+  <si>
+    <t>6318169.998798206</t>
+  </si>
+  <si>
+    <t>844782.2586213624</t>
+  </si>
+  <si>
+    <t>6317921.0724976035</t>
+  </si>
+  <si>
+    <t>844778.9838697354</t>
+  </si>
+  <si>
+    <t>6317841.4360625055</t>
+  </si>
+  <si>
+    <t>99_3</t>
+  </si>
+  <si>
+    <t>844772.2537981229</t>
+  </si>
+  <si>
+    <t>6317761.759638346</t>
+  </si>
+  <si>
+    <t>99_4</t>
+  </si>
+  <si>
+    <t>844764.763774182</t>
+  </si>
+  <si>
+    <t>6317689.397861969</t>
+  </si>
+  <si>
+    <t>844443.7855018985</t>
+  </si>
+  <si>
+    <t>6318004.327393293</t>
+  </si>
+  <si>
+    <t>844448.4274147316</t>
+  </si>
+  <si>
+    <t>6317924.46398744</t>
+  </si>
+  <si>
+    <t>110_3</t>
+  </si>
+  <si>
+    <t>844452.3011463889</t>
+  </si>
+  <si>
+    <t>6317844.561422122</t>
+  </si>
+  <si>
+    <t>110_4</t>
+  </si>
+  <si>
+    <t>844455.7727892172</t>
+  </si>
+  <si>
+    <t>6317772.70618262</t>
+  </si>
+  <si>
+    <t>845659.8085852131</t>
+  </si>
+  <si>
+    <t>6318372.873700957</t>
+  </si>
+  <si>
+    <t>845737.8740655952</t>
+  </si>
+  <si>
+    <t>6318355.585123955</t>
+  </si>
+  <si>
+    <t>468_3</t>
+  </si>
+  <si>
+    <t>845816.6381865914</t>
+  </si>
+  <si>
+    <t>6318341.638396531</t>
+  </si>
+  <si>
+    <t>468_4</t>
+  </si>
+  <si>
+    <t>845895.4797432029</t>
+  </si>
+  <si>
+    <t>6318328.094407506</t>
+  </si>
+  <si>
+    <t>468_5</t>
+  </si>
+  <si>
+    <t>845948.0289549789</t>
+  </si>
+  <si>
+    <t>6318319.894038805</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4938,6 +5289,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5002,7 +5360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5017,6 +5375,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5331,15 +5690,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB1DA36-A3A5-3946-9412-7B14D74D9E64}">
-  <dimension ref="A1:E412"/>
+  <dimension ref="A1:E457"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+      <selection activeCell="C413" sqref="C413:C457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>17</v>
       </c>
@@ -5373,7 +5732,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>17</v>
       </c>
@@ -5390,7 +5749,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5407,7 +5766,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5424,7 +5783,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5441,7 +5800,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5458,7 +5817,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5475,7 +5834,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5492,7 +5851,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5509,7 +5868,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5526,7 +5885,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5543,7 +5902,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5560,7 +5919,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>26</v>
       </c>
@@ -5577,7 +5936,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>26</v>
       </c>
@@ -5594,7 +5953,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>28</v>
       </c>
@@ -5611,7 +5970,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>28</v>
       </c>
@@ -5628,7 +5987,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>29</v>
       </c>
@@ -5645,7 +6004,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>29</v>
       </c>
@@ -5662,7 +6021,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>32</v>
       </c>
@@ -5679,7 +6038,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>32</v>
       </c>
@@ -5696,7 +6055,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>40</v>
       </c>
@@ -5713,7 +6072,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>40</v>
       </c>
@@ -5730,7 +6089,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>43</v>
       </c>
@@ -5747,7 +6106,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>43</v>
       </c>
@@ -5764,7 +6123,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>49</v>
       </c>
@@ -5781,7 +6140,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>49</v>
       </c>
@@ -5798,7 +6157,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>56</v>
       </c>
@@ -5815,7 +6174,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>56</v>
       </c>
@@ -5832,7 +6191,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>70</v>
       </c>
@@ -5849,7 +6208,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>70</v>
       </c>
@@ -5866,7 +6225,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>72</v>
       </c>
@@ -5883,7 +6242,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>72</v>
       </c>
@@ -5900,7 +6259,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>82</v>
       </c>
@@ -5917,7 +6276,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>82</v>
       </c>
@@ -5934,7 +6293,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>111</v>
       </c>
@@ -5951,7 +6310,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>111</v>
       </c>
@@ -5968,7 +6327,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>110</v>
       </c>
@@ -5985,7 +6344,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>110</v>
       </c>
@@ -6002,7 +6361,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>467</v>
       </c>
@@ -6019,7 +6378,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>467</v>
       </c>
@@ -6036,7 +6395,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>659</v>
       </c>
@@ -6053,7 +6412,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>659</v>
       </c>
@@ -6070,7 +6429,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>690</v>
       </c>
@@ -6087,7 +6446,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>690</v>
       </c>
@@ -6104,7 +6463,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>691</v>
       </c>
@@ -6121,7 +6480,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>691</v>
       </c>
@@ -6138,7 +6497,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>745</v>
       </c>
@@ -6155,7 +6514,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>745</v>
       </c>
@@ -6172,7 +6531,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>83</v>
       </c>
@@ -6189,7 +6548,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>83</v>
       </c>
@@ -6206,7 +6565,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>99</v>
       </c>
@@ -6223,7 +6582,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>99</v>
       </c>
@@ -6240,7 +6599,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>468</v>
       </c>
@@ -6257,7 +6616,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>468</v>
       </c>
@@ -6274,7 +6633,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>67</v>
       </c>
@@ -6291,7 +6650,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>67</v>
       </c>
@@ -6308,7 +6667,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="13" customFormat="1">
       <c r="A58" s="12">
         <v>412</v>
       </c>
@@ -6325,7 +6684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>412</v>
       </c>
@@ -6342,7 +6701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>412</v>
       </c>
@@ -6359,7 +6718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>412</v>
       </c>
@@ -6376,7 +6735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>412</v>
       </c>
@@ -6393,7 +6752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>412</v>
       </c>
@@ -6410,7 +6769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>412</v>
       </c>
@@ -6427,7 +6786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>412</v>
       </c>
@@ -6444,7 +6803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>412</v>
       </c>
@@ -6461,7 +6820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>412</v>
       </c>
@@ -6478,7 +6837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>412</v>
       </c>
@@ -6495,7 +6854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>412</v>
       </c>
@@ -6512,7 +6871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>412</v>
       </c>
@@ -6529,7 +6888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>412</v>
       </c>
@@ -6546,7 +6905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>412</v>
       </c>
@@ -6563,7 +6922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>412</v>
       </c>
@@ -6580,7 +6939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>412</v>
       </c>
@@ -6597,7 +6956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>412</v>
       </c>
@@ -6614,7 +6973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>412</v>
       </c>
@@ -6631,7 +6990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>412</v>
       </c>
@@ -6648,7 +7007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>412</v>
       </c>
@@ -6665,7 +7024,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>412</v>
       </c>
@@ -6682,7 +7041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>412</v>
       </c>
@@ -6699,7 +7058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>412</v>
       </c>
@@ -6716,7 +7075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>412</v>
       </c>
@@ -6733,7 +7092,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>412</v>
       </c>
@@ -6750,7 +7109,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>412</v>
       </c>
@@ -6767,7 +7126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>412</v>
       </c>
@@ -6784,7 +7143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>412</v>
       </c>
@@ -6801,7 +7160,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>412</v>
       </c>
@@ -6818,7 +7177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>412</v>
       </c>
@@ -6835,7 +7194,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>412</v>
       </c>
@@ -6852,7 +7211,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>412</v>
       </c>
@@ -6869,7 +7228,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>412</v>
       </c>
@@ -6886,7 +7245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>412</v>
       </c>
@@ -6903,7 +7262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>412</v>
       </c>
@@ -6920,7 +7279,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>412</v>
       </c>
@@ -6937,7 +7296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>412</v>
       </c>
@@ -6954,7 +7313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>412</v>
       </c>
@@ -6971,7 +7330,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>412</v>
       </c>
@@ -6988,7 +7347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>412</v>
       </c>
@@ -7005,7 +7364,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>412</v>
       </c>
@@ -7022,7 +7381,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>412</v>
       </c>
@@ -7039,7 +7398,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>412</v>
       </c>
@@ -7056,7 +7415,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>412</v>
       </c>
@@ -7073,7 +7432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>412</v>
       </c>
@@ -7090,7 +7449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>412</v>
       </c>
@@ -7107,7 +7466,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>412</v>
       </c>
@@ -7124,7 +7483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>412</v>
       </c>
@@ -7141,7 +7500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>412</v>
       </c>
@@ -7158,7 +7517,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>412</v>
       </c>
@@ -7175,7 +7534,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>412</v>
       </c>
@@ -7192,7 +7551,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>412</v>
       </c>
@@ -7209,7 +7568,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>412</v>
       </c>
@@ -7226,7 +7585,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>412</v>
       </c>
@@ -7243,7 +7602,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>412</v>
       </c>
@@ -7260,7 +7619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>667</v>
       </c>
@@ -7277,7 +7636,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>667</v>
       </c>
@@ -7294,7 +7653,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>667</v>
       </c>
@@ -7311,7 +7670,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>667</v>
       </c>
@@ -7328,7 +7687,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>667</v>
       </c>
@@ -7345,7 +7704,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>667</v>
       </c>
@@ -7362,7 +7721,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>667</v>
       </c>
@@ -7379,7 +7738,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>667</v>
       </c>
@@ -7396,7 +7755,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>667</v>
       </c>
@@ -7413,7 +7772,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>667</v>
       </c>
@@ -7430,7 +7789,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>667</v>
       </c>
@@ -7447,7 +7806,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="4">
         <v>667</v>
       </c>
@@ -7464,7 +7823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>667</v>
       </c>
@@ -7481,7 +7840,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="4">
         <v>667</v>
       </c>
@@ -7498,7 +7857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>667</v>
       </c>
@@ -7515,7 +7874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>667</v>
       </c>
@@ -7532,7 +7891,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>667</v>
       </c>
@@ -7549,7 +7908,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>667</v>
       </c>
@@ -7566,7 +7925,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>667</v>
       </c>
@@ -7583,7 +7942,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>667</v>
       </c>
@@ -7600,7 +7959,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>667</v>
       </c>
@@ -7617,7 +7976,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>667</v>
       </c>
@@ -7634,7 +7993,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>667</v>
       </c>
@@ -7651,7 +8010,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>667</v>
       </c>
@@ -7668,7 +8027,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>667</v>
       </c>
@@ -7685,7 +8044,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>667</v>
       </c>
@@ -7702,7 +8061,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>667</v>
       </c>
@@ -7719,7 +8078,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>667</v>
       </c>
@@ -7736,7 +8095,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>667</v>
       </c>
@@ -7753,7 +8112,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>667</v>
       </c>
@@ -7770,7 +8129,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>667</v>
       </c>
@@ -7787,7 +8146,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>667</v>
       </c>
@@ -7804,7 +8163,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>667</v>
       </c>
@@ -7821,7 +8180,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>666</v>
       </c>
@@ -7838,7 +8197,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>666</v>
       </c>
@@ -7855,7 +8214,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>666</v>
       </c>
@@ -7872,7 +8231,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>666</v>
       </c>
@@ -7889,7 +8248,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>666</v>
       </c>
@@ -7906,7 +8265,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>666</v>
       </c>
@@ -7923,7 +8282,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>666</v>
       </c>
@@ -7940,7 +8299,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>666</v>
       </c>
@@ -7957,7 +8316,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>666</v>
       </c>
@@ -7974,7 +8333,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>666</v>
       </c>
@@ -7991,7 +8350,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>666</v>
       </c>
@@ -8008,7 +8367,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="6">
         <v>666</v>
       </c>
@@ -8025,7 +8384,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>666</v>
       </c>
@@ -8042,7 +8401,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>666</v>
       </c>
@@ -8059,7 +8418,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="6">
         <v>666</v>
       </c>
@@ -8076,7 +8435,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="6">
         <v>666</v>
       </c>
@@ -8093,7 +8452,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>666</v>
       </c>
@@ -8110,7 +8469,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="6">
         <v>666</v>
       </c>
@@ -8127,7 +8486,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="6">
         <v>666</v>
       </c>
@@ -8144,7 +8503,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="6">
         <v>666</v>
       </c>
@@ -8161,7 +8520,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="6">
         <v>666</v>
       </c>
@@ -8178,7 +8537,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>666</v>
       </c>
@@ -8195,7 +8554,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>666</v>
       </c>
@@ -8212,7 +8571,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="6">
         <v>666</v>
       </c>
@@ -8229,7 +8588,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>666</v>
       </c>
@@ -8246,7 +8605,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>666</v>
       </c>
@@ -8263,7 +8622,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>666</v>
       </c>
@@ -8280,7 +8639,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>488</v>
       </c>
@@ -8297,7 +8656,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>488</v>
       </c>
@@ -8314,7 +8673,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>488</v>
       </c>
@@ -8331,7 +8690,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>488</v>
       </c>
@@ -8348,7 +8707,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>488</v>
       </c>
@@ -8365,7 +8724,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>488</v>
       </c>
@@ -8382,7 +8741,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>488</v>
       </c>
@@ -8399,7 +8758,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>488</v>
       </c>
@@ -8416,7 +8775,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>488</v>
       </c>
@@ -8433,7 +8792,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>488</v>
       </c>
@@ -8450,7 +8809,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>488</v>
       </c>
@@ -8467,7 +8826,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>488</v>
       </c>
@@ -8484,7 +8843,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>488</v>
       </c>
@@ -8501,7 +8860,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>488</v>
       </c>
@@ -8518,7 +8877,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>488</v>
       </c>
@@ -8535,7 +8894,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="8">
         <v>488</v>
       </c>
@@ -8552,7 +8911,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>488</v>
       </c>
@@ -8569,7 +8928,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>488</v>
       </c>
@@ -8586,7 +8945,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>488</v>
       </c>
@@ -8603,7 +8962,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>488</v>
       </c>
@@ -8620,7 +8979,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>488</v>
       </c>
@@ -8637,7 +8996,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>488</v>
       </c>
@@ -8654,7 +9013,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>488</v>
       </c>
@@ -8671,7 +9030,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>488</v>
       </c>
@@ -8688,7 +9047,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="8">
         <v>488</v>
       </c>
@@ -8705,7 +9064,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>488</v>
       </c>
@@ -8722,7 +9081,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>488</v>
       </c>
@@ -8739,7 +9098,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>488</v>
       </c>
@@ -8756,7 +9115,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="8">
         <v>488</v>
       </c>
@@ -8773,7 +9132,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>488</v>
       </c>
@@ -8790,7 +9149,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>488</v>
       </c>
@@ -8807,7 +9166,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>488</v>
       </c>
@@ -8824,7 +9183,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>488</v>
       </c>
@@ -8841,7 +9200,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>488</v>
       </c>
@@ -8858,7 +9217,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>488</v>
       </c>
@@ -8875,7 +9234,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>488</v>
       </c>
@@ -8892,7 +9251,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="8">
         <v>488</v>
       </c>
@@ -8909,7 +9268,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>488</v>
       </c>
@@ -8926,7 +9285,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>488</v>
       </c>
@@ -8943,7 +9302,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>488</v>
       </c>
@@ -8960,7 +9319,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>488</v>
       </c>
@@ -8977,7 +9336,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>488</v>
       </c>
@@ -8994,7 +9353,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>488</v>
       </c>
@@ -9011,7 +9370,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>488</v>
       </c>
@@ -9028,7 +9387,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="8">
         <v>488</v>
       </c>
@@ -9045,7 +9404,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>488</v>
       </c>
@@ -9062,7 +9421,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>488</v>
       </c>
@@ -9079,7 +9438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>488</v>
       </c>
@@ -9096,7 +9455,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>488</v>
       </c>
@@ -9113,7 +9472,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>488</v>
       </c>
@@ -9130,7 +9489,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>488</v>
       </c>
@@ -9147,7 +9506,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>488</v>
       </c>
@@ -9164,7 +9523,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>488</v>
       </c>
@@ -9181,7 +9540,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>487</v>
       </c>
@@ -9198,7 +9557,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>487</v>
       </c>
@@ -9215,7 +9574,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>487</v>
       </c>
@@ -9232,7 +9591,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="10">
         <v>487</v>
       </c>
@@ -9249,7 +9608,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="10">
         <v>487</v>
       </c>
@@ -9266,7 +9625,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="10">
         <v>487</v>
       </c>
@@ -9283,7 +9642,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>487</v>
       </c>
@@ -9300,7 +9659,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="10">
         <v>487</v>
       </c>
@@ -9317,7 +9676,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>487</v>
       </c>
@@ -9334,7 +9693,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>487</v>
       </c>
@@ -9351,7 +9710,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>487</v>
       </c>
@@ -9368,7 +9727,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>487</v>
       </c>
@@ -9385,7 +9744,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>487</v>
       </c>
@@ -9402,7 +9761,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>487</v>
       </c>
@@ -9419,7 +9778,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="10">
         <v>487</v>
       </c>
@@ -9436,7 +9795,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>487</v>
       </c>
@@ -9453,7 +9812,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>487</v>
       </c>
@@ -9470,7 +9829,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>487</v>
       </c>
@@ -9487,7 +9846,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="10">
         <v>487</v>
       </c>
@@ -9504,7 +9863,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>487</v>
       </c>
@@ -9521,7 +9880,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>487</v>
       </c>
@@ -9538,7 +9897,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="10">
         <v>487</v>
       </c>
@@ -9555,7 +9914,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>487</v>
       </c>
@@ -9572,7 +9931,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>487</v>
       </c>
@@ -9589,7 +9948,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>487</v>
       </c>
@@ -9606,7 +9965,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>487</v>
       </c>
@@ -9623,7 +9982,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>487</v>
       </c>
@@ -9640,7 +9999,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>487</v>
       </c>
@@ -9657,7 +10016,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>487</v>
       </c>
@@ -9674,7 +10033,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="1">
         <v>487</v>
       </c>
@@ -9691,7 +10050,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="1">
         <v>402</v>
       </c>
@@ -9708,7 +10067,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="1">
         <v>402</v>
       </c>
@@ -9725,7 +10084,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="1">
         <v>402</v>
       </c>
@@ -9742,7 +10101,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="8">
         <v>402</v>
       </c>
@@ -9759,7 +10118,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="1">
         <v>402</v>
       </c>
@@ -9776,7 +10135,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>402</v>
       </c>
@@ -9793,7 +10152,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>402</v>
       </c>
@@ -9810,7 +10169,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="1">
         <v>402</v>
       </c>
@@ -9827,7 +10186,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="8">
         <v>402</v>
       </c>
@@ -9844,7 +10203,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>402</v>
       </c>
@@ -9861,7 +10220,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="8">
         <v>402</v>
       </c>
@@ -9878,7 +10237,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="8">
         <v>402</v>
       </c>
@@ -9895,7 +10254,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="8">
         <v>402</v>
       </c>
@@ -9912,7 +10271,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="8">
         <v>402</v>
       </c>
@@ -9929,7 +10288,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>402</v>
       </c>
@@ -9946,7 +10305,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="1">
         <v>402</v>
       </c>
@@ -9963,7 +10322,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>402</v>
       </c>
@@ -9980,7 +10339,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="8">
         <v>402</v>
       </c>
@@ -9997,7 +10356,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="8">
         <v>402</v>
       </c>
@@ -10014,7 +10373,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>402</v>
       </c>
@@ -10031,7 +10390,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>402</v>
       </c>
@@ -10048,7 +10407,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>402</v>
       </c>
@@ -10065,7 +10424,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="8">
         <v>402</v>
       </c>
@@ -10082,7 +10441,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="8">
         <v>402</v>
       </c>
@@ -10099,7 +10458,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>402</v>
       </c>
@@ -10116,7 +10475,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>402</v>
       </c>
@@ -10133,7 +10492,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="8">
         <v>402</v>
       </c>
@@ -10150,7 +10509,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>402</v>
       </c>
@@ -10167,7 +10526,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>402</v>
       </c>
@@ -10184,7 +10543,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>402</v>
       </c>
@@ -10201,7 +10560,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="8">
         <v>402</v>
       </c>
@@ -10218,7 +10577,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>402</v>
       </c>
@@ -10235,7 +10594,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>392</v>
       </c>
@@ -10252,7 +10611,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>392</v>
       </c>
@@ -10269,7 +10628,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>392</v>
       </c>
@@ -10286,7 +10645,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>392</v>
       </c>
@@ -10303,7 +10662,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>392</v>
       </c>
@@ -10320,7 +10679,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>392</v>
       </c>
@@ -10337,7 +10696,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>392</v>
       </c>
@@ -10354,7 +10713,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>392</v>
       </c>
@@ -10371,7 +10730,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>392</v>
       </c>
@@ -10388,7 +10747,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>392</v>
       </c>
@@ -10405,7 +10764,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>392</v>
       </c>
@@ -10422,7 +10781,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>392</v>
       </c>
@@ -10439,7 +10798,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>392</v>
       </c>
@@ -10456,7 +10815,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>392</v>
       </c>
@@ -10473,7 +10832,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>392</v>
       </c>
@@ -10490,7 +10849,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>392</v>
       </c>
@@ -10507,7 +10866,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>392</v>
       </c>
@@ -10524,7 +10883,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>392</v>
       </c>
@@ -10541,7 +10900,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>392</v>
       </c>
@@ -10558,7 +10917,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>392</v>
       </c>
@@ -10575,7 +10934,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="8">
         <v>392</v>
       </c>
@@ -10592,7 +10951,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="1">
         <v>392</v>
       </c>
@@ -10609,7 +10968,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>392</v>
       </c>
@@ -10626,7 +10985,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="1">
         <v>392</v>
       </c>
@@ -10643,7 +11002,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
         <v>392</v>
       </c>
@@ -10660,7 +11019,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="1">
         <v>392</v>
       </c>
@@ -10677,7 +11036,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>392</v>
       </c>
@@ -10694,7 +11053,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="1">
         <v>392</v>
       </c>
@@ -10711,7 +11070,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="1">
         <v>392</v>
       </c>
@@ -10728,7 +11087,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>205</v>
       </c>
@@ -10745,7 +11104,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>205</v>
       </c>
@@ -10762,7 +11121,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>205</v>
       </c>
@@ -10779,7 +11138,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>205</v>
       </c>
@@ -10796,7 +11155,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>205</v>
       </c>
@@ -10813,7 +11172,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>205</v>
       </c>
@@ -10830,7 +11189,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>205</v>
       </c>
@@ -10847,7 +11206,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>205</v>
       </c>
@@ -10864,7 +11223,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="9">
         <v>205</v>
       </c>
@@ -10881,7 +11240,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="9">
         <v>205</v>
       </c>
@@ -10898,7 +11257,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>205</v>
       </c>
@@ -10915,7 +11274,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="9">
         <v>205</v>
       </c>
@@ -10932,7 +11291,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>205</v>
       </c>
@@ -10949,7 +11308,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="9">
         <v>205</v>
       </c>
@@ -10966,7 +11325,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="9">
         <v>205</v>
       </c>
@@ -10983,7 +11342,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>205</v>
       </c>
@@ -11000,7 +11359,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="9">
         <v>205</v>
       </c>
@@ -11017,7 +11376,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>205</v>
       </c>
@@ -11034,7 +11393,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="9">
         <v>205</v>
       </c>
@@ -11051,7 +11410,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="9">
         <v>205</v>
       </c>
@@ -11068,7 +11427,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="11">
         <v>195</v>
       </c>
@@ -11085,7 +11444,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="11">
         <v>195</v>
       </c>
@@ -11102,7 +11461,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>195</v>
       </c>
@@ -11119,7 +11478,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>195</v>
       </c>
@@ -11136,7 +11495,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>195</v>
       </c>
@@ -11153,7 +11512,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>195</v>
       </c>
@@ -11170,7 +11529,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>195</v>
       </c>
@@ -11187,7 +11546,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>195</v>
       </c>
@@ -11204,7 +11563,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>195</v>
       </c>
@@ -11221,7 +11580,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>195</v>
       </c>
@@ -11238,7 +11597,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>195</v>
       </c>
@@ -11255,7 +11614,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>195</v>
       </c>
@@ -11272,7 +11631,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>195</v>
       </c>
@@ -11289,7 +11648,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>195</v>
       </c>
@@ -11306,7 +11665,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>195</v>
       </c>
@@ -11323,7 +11682,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>195</v>
       </c>
@@ -11340,7 +11699,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="11">
         <v>195</v>
       </c>
@@ -11357,7 +11716,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="11">
         <v>195</v>
       </c>
@@ -11374,7 +11733,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="11">
         <v>195</v>
       </c>
@@ -11391,7 +11750,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>195</v>
       </c>
@@ -11408,7 +11767,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="11">
         <v>195</v>
       </c>
@@ -11425,7 +11784,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="11">
         <v>195</v>
       </c>
@@ -11442,7 +11801,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>195</v>
       </c>
@@ -11459,7 +11818,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="11">
         <v>195</v>
       </c>
@@ -11476,7 +11835,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="11">
         <v>195</v>
       </c>
@@ -11493,7 +11852,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>195</v>
       </c>
@@ -11510,7 +11869,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>195</v>
       </c>
@@ -11527,7 +11886,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>195</v>
       </c>
@@ -11544,7 +11903,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>195</v>
       </c>
@@ -11561,7 +11920,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367">
         <v>195</v>
       </c>
@@ -11578,7 +11937,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368">
         <v>195</v>
       </c>
@@ -11595,7 +11954,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369">
         <v>195</v>
       </c>
@@ -11612,7 +11971,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="11">
         <v>195</v>
       </c>
@@ -11629,7 +11988,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371">
         <v>195</v>
       </c>
@@ -11646,7 +12005,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="11">
         <v>195</v>
       </c>
@@ -11663,7 +12022,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373">
         <v>195</v>
       </c>
@@ -11680,7 +12039,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374">
         <v>185</v>
       </c>
@@ -11697,7 +12056,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375">
         <v>185</v>
       </c>
@@ -11714,7 +12073,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376">
         <v>185</v>
       </c>
@@ -11731,7 +12090,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377">
         <v>185</v>
       </c>
@@ -11748,7 +12107,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378">
         <v>185</v>
       </c>
@@ -11765,7 +12124,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379">
         <v>185</v>
       </c>
@@ -11782,7 +12141,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380">
         <v>185</v>
       </c>
@@ -11799,7 +12158,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381">
         <v>185</v>
       </c>
@@ -11816,7 +12175,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="11">
         <v>185</v>
       </c>
@@ -11833,7 +12192,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383">
         <v>185</v>
       </c>
@@ -11850,7 +12209,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384">
         <v>185</v>
       </c>
@@ -11867,7 +12226,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385">
         <v>185</v>
       </c>
@@ -11884,7 +12243,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386">
         <v>185</v>
       </c>
@@ -11901,7 +12260,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387">
         <v>185</v>
       </c>
@@ -11918,7 +12277,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="11">
         <v>185</v>
       </c>
@@ -11935,7 +12294,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389">
         <v>185</v>
       </c>
@@ -11952,7 +12311,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390">
         <v>185</v>
       </c>
@@ -11969,7 +12328,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391">
         <v>185</v>
       </c>
@@ -11986,7 +12345,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392">
         <v>185</v>
       </c>
@@ -12003,7 +12362,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393">
         <v>185</v>
       </c>
@@ -12020,7 +12379,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394">
         <v>185</v>
       </c>
@@ -12037,7 +12396,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395">
         <v>185</v>
       </c>
@@ -12054,7 +12413,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396">
         <v>185</v>
       </c>
@@ -12071,7 +12430,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397">
         <v>185</v>
       </c>
@@ -12088,7 +12447,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398">
         <v>185</v>
       </c>
@@ -12105,7 +12464,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="11">
         <v>185</v>
       </c>
@@ -12122,7 +12481,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400">
         <v>185</v>
       </c>
@@ -12139,7 +12498,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401">
         <v>185</v>
       </c>
@@ -12156,7 +12515,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402">
         <v>185</v>
       </c>
@@ -12173,7 +12532,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403">
         <v>185</v>
       </c>
@@ -12190,7 +12549,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404">
         <v>185</v>
       </c>
@@ -12207,7 +12566,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405">
         <v>483</v>
       </c>
@@ -12221,7 +12580,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406">
         <v>483</v>
       </c>
@@ -12236,7 +12595,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407">
         <v>483</v>
       </c>
@@ -12251,7 +12610,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408">
         <v>483</v>
       </c>
@@ -12266,7 +12625,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409">
         <v>483</v>
       </c>
@@ -12281,7 +12640,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410">
         <v>483</v>
       </c>
@@ -12295,7 +12654,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411">
         <v>71</v>
       </c>
@@ -12312,7 +12671,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412">
         <v>71</v>
       </c>
@@ -12327,6 +12686,771 @@
       </c>
       <c r="E412" s="11" t="s">
         <v>1628</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="14">
+        <v>8</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C413" s="14">
+        <v>80</v>
+      </c>
+      <c r="D413" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="14">
+        <v>8</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C414" s="14">
+        <v>80</v>
+      </c>
+      <c r="D414" s="14" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="14">
+        <v>8</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C415" s="14">
+        <v>80</v>
+      </c>
+      <c r="D415" s="14" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="14">
+        <v>8</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C416" s="14">
+        <v>80</v>
+      </c>
+      <c r="D416" s="14" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="14">
+        <v>56</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C417" s="14">
+        <v>80</v>
+      </c>
+      <c r="D417" s="14" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="14">
+        <v>56</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C418" s="14">
+        <v>80</v>
+      </c>
+      <c r="D418" s="14" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E418" s="14" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="14">
+        <v>56</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C419" s="14">
+        <v>80</v>
+      </c>
+      <c r="D419" s="14" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E419" s="14" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="14">
+        <v>56</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C420" s="14">
+        <v>80</v>
+      </c>
+      <c r="D420" s="14" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E420" s="14" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="14">
+        <v>56</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C421" s="14">
+        <v>80</v>
+      </c>
+      <c r="D421" s="14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E421" s="14" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="14">
+        <v>67</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C422" s="14">
+        <v>80</v>
+      </c>
+      <c r="D422" s="14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E422" s="14" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="14">
+        <v>67</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C423" s="14">
+        <v>80</v>
+      </c>
+      <c r="D423" s="14" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E423" s="14" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="14">
+        <v>67</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C424" s="14">
+        <v>80</v>
+      </c>
+      <c r="D424" s="14" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E424" s="14" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="14">
+        <v>67</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C425" s="14">
+        <v>80</v>
+      </c>
+      <c r="D425" s="14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E425" s="14" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="14">
+        <v>67</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C426" s="14">
+        <v>80</v>
+      </c>
+      <c r="D426" s="14" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="14">
+        <v>67</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C427" s="14">
+        <v>80</v>
+      </c>
+      <c r="D427" s="14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E427" s="14" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="14">
+        <v>67</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C428" s="14">
+        <v>80</v>
+      </c>
+      <c r="D428" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="14">
+        <v>67</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C429" s="14">
+        <v>80</v>
+      </c>
+      <c r="D429" s="14" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E429" s="14" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="14">
+        <v>70</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C430" s="14">
+        <v>80</v>
+      </c>
+      <c r="D430" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E430" s="14" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="14">
+        <v>70</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C431" s="14">
+        <v>80</v>
+      </c>
+      <c r="D431" s="14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="14">
+        <v>70</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C432" s="14">
+        <v>80</v>
+      </c>
+      <c r="D432" s="14" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E432" s="14" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="14">
+        <v>70</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C433" s="14">
+        <v>80</v>
+      </c>
+      <c r="D433" s="14" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E433" s="14" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="14">
+        <v>70</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C434" s="14">
+        <v>80</v>
+      </c>
+      <c r="D434" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="14">
+        <v>71</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C435" s="14">
+        <v>80</v>
+      </c>
+      <c r="D435" s="14" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E435" s="14" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="14">
+        <v>71</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C436" s="14">
+        <v>80</v>
+      </c>
+      <c r="D436" s="14" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="14">
+        <v>71</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C437" s="14">
+        <v>80</v>
+      </c>
+      <c r="D437" s="14" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="14">
+        <v>71</v>
+      </c>
+      <c r="B438" s="14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C438" s="14">
+        <v>80</v>
+      </c>
+      <c r="D438" s="14" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E438" s="14" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="14">
+        <v>71</v>
+      </c>
+      <c r="B439" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C439" s="14">
+        <v>80</v>
+      </c>
+      <c r="D439" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E439" s="14" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="14">
+        <v>82</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C440" s="14">
+        <v>80</v>
+      </c>
+      <c r="D440" s="14" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E440" s="14" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="14">
+        <v>82</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C441" s="14">
+        <v>80</v>
+      </c>
+      <c r="D441" s="14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E441" s="14" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="14">
+        <v>82</v>
+      </c>
+      <c r="B442" s="14" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C442" s="14">
+        <v>80</v>
+      </c>
+      <c r="D442" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E442" s="14" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="14">
+        <v>82</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C443" s="14">
+        <v>80</v>
+      </c>
+      <c r="D443" s="14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E443" s="14" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="14">
+        <v>82</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C444" s="14">
+        <v>80</v>
+      </c>
+      <c r="D444" s="14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E444" s="14" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="14">
+        <v>99</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C445" s="14">
+        <v>80</v>
+      </c>
+      <c r="D445" s="14" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E445" s="14" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="14">
+        <v>99</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C446" s="14">
+        <v>80</v>
+      </c>
+      <c r="D446" s="14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E446" s="14" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="14">
+        <v>99</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C447" s="14">
+        <v>80</v>
+      </c>
+      <c r="D447" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E447" s="14" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="14">
+        <v>99</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C448" s="14">
+        <v>80</v>
+      </c>
+      <c r="D448" s="14" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E448" s="14" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="14">
+        <v>110</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C449" s="14">
+        <v>80</v>
+      </c>
+      <c r="D449" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E449" s="14" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="14">
+        <v>110</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C450" s="14">
+        <v>80</v>
+      </c>
+      <c r="D450" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E450" s="14" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="14">
+        <v>110</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C451" s="14">
+        <v>80</v>
+      </c>
+      <c r="D451" s="14" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E451" s="14" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="14">
+        <v>110</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C452" s="14">
+        <v>80</v>
+      </c>
+      <c r="D452" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E452" s="14" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="14">
+        <v>468</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C453" s="14">
+        <v>80</v>
+      </c>
+      <c r="D453" s="14" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E453" s="14" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="14">
+        <v>468</v>
+      </c>
+      <c r="B454" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C454" s="14">
+        <v>80</v>
+      </c>
+      <c r="D454" s="14" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E454" s="14" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="14">
+        <v>468</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C455" s="14">
+        <v>80</v>
+      </c>
+      <c r="D455" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E455" s="14" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="14">
+        <v>468</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C456" s="14">
+        <v>80</v>
+      </c>
+      <c r="D456" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E456" s="14" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="14">
+        <v>468</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C457" s="14">
+        <v>80</v>
+      </c>
+      <c r="D457" s="14" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E457" s="14" t="s">
+        <v>1746</v>
       </c>
     </row>
   </sheetData>
